--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed1/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.5867</v>
+        <v>12.94080000000001</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.402099999999995</v>
+        <v>5.559099999999994</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.895199999999999</v>
+        <v>-8.152299999999995</v>
       </c>
       <c r="E4" t="n">
-        <v>13.44940000000001</v>
+        <v>13.5338</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.5831</v>
+        <v>-8.582599999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -533,13 +533,13 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.600899999999996</v>
+        <v>9.474399999999992</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.201899999999988</v>
+        <v>-9.220799999999988</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.160599999999995</v>
+        <v>5.208699999999994</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.372899999999992</v>
+        <v>5.201499999999993</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.914800000000001</v>
+        <v>-7.992699999999998</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.44170000000001</v>
+        <v>14.33140000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.1447</v>
+        <v>13.1214</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.13770000000001</v>
+        <v>13.12490000000001</v>
       </c>
     </row>
     <row r="15">
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.254100000000005</v>
+        <v>8.44380000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.868100000000003</v>
+        <v>-7.853800000000001</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.3182</v>
+        <v>12.4829</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.403899999999996</v>
+        <v>5.643899999999993</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.289399999999993</v>
+        <v>5.301899999999993</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.2082</v>
+        <v>-7.952700000000001</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.54950000000001</v>
+        <v>13.14310000000001</v>
       </c>
     </row>
   </sheetData>
